--- a/Metrics/Preprocessing/Metrics.xlsx
+++ b/Metrics/Preprocessing/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjcrum\Documents\GitHub\Plant-Image-Recognition\DATS-Capstone-CNN-Plant-Recognition\Metrics\Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD1315A-246C-4B94-9AED-462DB4D2C44B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AA35A6-59A7-400D-A301-6BF63DE43D36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DA685637-620A-46DE-9505-246848E10240}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>None</t>
   </si>
@@ -127,6 +127,57 @@
   </si>
   <si>
     <t>Normalization</t>
+  </si>
+  <si>
+    <t>MaskBlur</t>
+  </si>
+  <si>
+    <t>[[ 314    0    0    0   11    1  563    3    2    0    0    0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   0  942   23    0    7    6    0    4    0    0    2   10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   0   14  944    3    4    1    0    0    4    0    0    6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   1    0   12  963    3    3    2    2   12   14   11   15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  50    0    0    0  685    0    4   10    0    0    0    2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   6    8   11    1   10  731   13    9    0    0    0   18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  84    0    0    0    2    6 1013    1    3    1    0    2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   8    0    1    0    7    0    5  707    0    0    0   23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   2    0   14    5    5    2    4    3  796   19    3   24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   0   11    2    5    0    3    0    0   50  704    1    8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   0   18   16    6    1    0    2    2    4    2  792    0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  14    1    7    1   12    3    0    1    0    0    0  942]]</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8820318282753515</t>
+  </si>
+  <si>
+    <t>F1: 0.8801914632308265</t>
+  </si>
+  <si>
+    <t>Recall: 0.8807953753750644</t>
+  </si>
+  <si>
+    <t>Precision: 0.8922730793228398</t>
   </si>
 </sst>
 </file>
@@ -478,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7471304C-1B8D-4328-AAF9-D46BB57A9276}">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +540,12 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,69 +555,120 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
